--- a/サンプル一覧.xlsx
+++ b/サンプル一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>VS-Version</t>
     <phoneticPr fontId="1"/>
@@ -974,6 +974,49 @@
     <rPh sb="14" eb="16">
       <t>サイセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBtest</t>
+  </si>
+  <si>
+    <t>Dbtest.slh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB Sqlサンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PluginTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HogePlugin.sln</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLLの動的呼び出し</t>
+    <rPh sb="4" eb="6">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLサンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sqlTest.sln</t>
+  </si>
+  <si>
+    <t>sqlTest</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1557,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G66"/>
+  <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:G61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,302 +1646,326 @@
       <c r="B5" s="6">
         <v>2010</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>8</v>
+      <c r="B9" s="6"/>
+      <c r="C9" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
-      <c r="C10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
-      <c r="C11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
+      <c r="C11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
-      <c r="C13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
-      <c r="C14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
-      <c r="C19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
       <c r="C24" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
       <c r="C25" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
       <c r="C27" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -1908,207 +1975,205 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
       <c r="C31" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
       <c r="C32" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
       <c r="C33" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
       <c r="C37" s="12" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
       <c r="C38" s="12" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
       <c r="C39" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
       <c r="C40" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
       <c r="C41" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="6"/>
-      <c r="C42" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="9"/>
       <c r="E42" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -2116,250 +2181,246 @@
       <c r="C43" s="12"/>
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="6"/>
-      <c r="C45" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="2" t="s">
-        <v>112</v>
+      <c r="B45" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="7">
-        <v>2017</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="6"/>
-      <c r="C47" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="1" t="s">
-        <v>118</v>
+      <c r="C47" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="6"/>
       <c r="C49" s="23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
       <c r="C50" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="6"/>
       <c r="C54" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="6"/>
       <c r="C55" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="6"/>
       <c r="C56" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="6"/>
       <c r="C57" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="6"/>
       <c r="C58" s="23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="6"/>
       <c r="C59" s="23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="6"/>
-      <c r="C60" s="23" t="s">
-        <v>156</v>
-      </c>
+      <c r="C60" s="23"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="6"/>
@@ -2401,14 +2462,6 @@
       <c r="F65" s="19"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="6"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サンプル一覧.xlsx
+++ b/サンプル一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>VS-Version</t>
     <phoneticPr fontId="1"/>
@@ -1017,6 +1017,21 @@
   </si>
   <si>
     <t>sqlTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CsCodingRules\CsCodingRules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CsCodingRules.sln</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイルコップアナライザを使用したコーディングルール</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1602,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2416,11 +2431,17 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="6"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="F60" s="19"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="6"/>

--- a/サンプル一覧.xlsx
+++ b/サンプル一覧.xlsx
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,14 +1675,14 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="1" t="s">
         <v>163</v>
       </c>
